--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D64A054-9CE3-4E2C-ABD2-F771E66863D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36667826-FD40-4F36-A400-DDA8FFD6D951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>week</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>change practice problems</t>
+  </si>
+  <si>
+    <t>2 x2 functions</t>
+  </si>
+  <si>
+    <t>2 long</t>
+  </si>
+  <si>
+    <t>2 x4 functions</t>
   </si>
 </sst>
 </file>
@@ -460,7 +469,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +604,9 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
@@ -607,6 +619,9 @@
       <c r="B7" s="1">
         <v>44369</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="H7" t="s">
         <v>23</v>
       </c>
@@ -646,6 +661,9 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
@@ -686,7 +704,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -707,7 +728,10 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36667826-FD40-4F36-A400-DDA8FFD6D951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E14716-E589-42D4-BFF2-0034F3FF52F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>4 (lab 5)</t>
   </si>
   <si>
-    <t>5 (lab 6,7), cheatsheet</t>
-  </si>
-  <si>
     <t>3 (lab 1-5)</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>2D array, typedef struct and how to malloc() and shallow/deep copy it</t>
   </si>
   <si>
-    <t>change practice problems</t>
-  </si>
-  <si>
     <t>2 x2 functions</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>2 x4 functions</t>
+  </si>
+  <si>
+    <t>5 (lab 6,7)</t>
+  </si>
+  <si>
+    <t>6 (cheatsheet)</t>
   </si>
 </sst>
 </file>
@@ -154,18 +154,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,11 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +462,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,12 +576,12 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -619,9 +612,6 @@
       <c r="B7" s="1">
         <v>44369</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
       <c r="H7" t="s">
         <v>23</v>
       </c>
@@ -641,7 +631,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -662,17 +655,15 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -686,7 +677,7 @@
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -707,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -731,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,16 +734,19 @@
         <v>44411</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>44418</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E14716-E589-42D4-BFF2-0034F3FF52F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB217D-6A81-42A4-A0A2-F044D0192AFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,10 +135,10 @@
     <t>2 x4 functions</t>
   </si>
   <si>
-    <t>5 (lab 6,7)</t>
-  </si>
-  <si>
     <t>6 (cheatsheet)</t>
+  </si>
+  <si>
+    <t>5 (lab 6)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,12 +554,21 @@
       <c r="B4" s="1">
         <v>44348</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -569,17 +578,8 @@
       <c r="B5" s="1">
         <v>44355</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="H5" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -724,6 +724,9 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -735,18 +738,15 @@
       </c>
       <c r="G13" t="s">
         <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>44418</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB217D-6A81-42A4-A0A2-F044D0192AFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E8EDA9-B6B8-4787-98E2-C77B9C9C53B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -695,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -745,9 +745,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1">
-        <v>44418</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E8EDA9-B6B8-4787-98E2-C77B9C9C53B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F97566C-DE61-4B9B-B79A-4527AAE6669E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>week</t>
   </si>
@@ -90,9 +90,6 @@
     <t>short</t>
   </si>
   <si>
-    <t>realloc, prealloc</t>
-  </si>
-  <si>
     <t>re/malloc, free vs new</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>array, linked list vs vector</t>
   </si>
   <si>
-    <t>file i/o: xdr (long code examples)</t>
-  </si>
-  <si>
     <t>2 (lab 1-3)</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>functions, arrays, C string, stream redirection</t>
   </si>
   <si>
-    <t>2D array, typedef struct and how to malloc() and shallow/deep copy it</t>
-  </si>
-  <si>
     <t>2 x2 functions</t>
   </si>
   <si>
@@ -139,6 +130,18 @@
   </si>
   <si>
     <t>5 (lab 6)</t>
+  </si>
+  <si>
+    <t>multidimensional arrays, stack storage, heap storage (malloc(), free())</t>
+  </si>
+  <si>
+    <t>typedef struct and how to malloc() and shallow/deep copy it</t>
+  </si>
+  <si>
+    <t>realloc(), preallocation, unstable remove</t>
+  </si>
+  <si>
+    <t>file i/o: xdr</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -597,6 +600,9 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -613,7 +619,7 @@
         <v>44369</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -631,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -652,16 +658,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -674,10 +680,10 @@
         <v>44390</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -695,13 +701,13 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -719,13 +725,13 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,10 +743,10 @@
         <v>44411</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F97566C-DE61-4B9B-B79A-4527AAE6669E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66055E58-23B1-4371-866A-6BA556AC4C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>week</t>
   </si>
@@ -51,15 +51,9 @@
     <t>lab</t>
   </si>
   <si>
-    <t>lecture</t>
-  </si>
-  <si>
     <t>practice</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>C vs C++</t>
   </si>
   <si>
@@ -78,16 +72,10 @@
     <t>content</t>
   </si>
   <si>
-    <t>mid</t>
-  </si>
-  <si>
     <t>C syntax, compile, variables, conditions/loops</t>
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>short</t>
   </si>
   <si>
     <t>re/malloc, free vs new</t>
@@ -462,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,15 +461,14 @@
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="63.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,28 +479,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>WEEKNUM(B2)-20</f>
         <v>1</v>
@@ -525,19 +509,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A13" si="0">WEEKNUM(B3)-20</f>
         <v>2</v>
@@ -549,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -561,19 +542,16 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -581,12 +559,12 @@
       <c r="B5" s="1">
         <v>44355</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -598,19 +576,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -618,11 +593,11 @@
       <c r="B7" s="1">
         <v>44369</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -634,16 +609,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -655,23 +627,20 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -679,14 +648,14 @@
       <c r="B10" s="1">
         <v>44390</v>
       </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -698,19 +667,16 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -722,19 +688,16 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -742,14 +705,14 @@
       <c r="B13" s="1">
         <v>44411</v>
       </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66055E58-23B1-4371-866A-6BA556AC4C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D11E4-5A05-40FE-AEA1-B5C232D26728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\2021-05-01\cmpt127\202105_sfu_cmpt_127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D11E4-5A05-40FE-AEA1-B5C232D26728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE44C79-AD1E-4A29-B7EC-554ECCEB395C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>quiz</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>C vs C++</t>
   </si>
@@ -60,51 +42,15 @@
     <t>printf/scanf vs std::cout/cin</t>
   </si>
   <si>
-    <t>1 (lab 1)</t>
-  </si>
-  <si>
-    <t>1 (x4) (lab 1)</t>
-  </si>
-  <si>
-    <t>2 (x4) (lab 2)</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>C syntax, compile, variables, conditions/loops</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>re/malloc, free vs new</t>
   </si>
   <si>
-    <t>linked list</t>
-  </si>
-  <si>
     <t>array, linked list vs vector</t>
   </si>
   <si>
-    <t>2 (lab 1-3)</t>
-  </si>
-  <si>
-    <t>3 (lab 4)</t>
-  </si>
-  <si>
-    <t>4 (lab 5)</t>
-  </si>
-  <si>
-    <t>3 (lab 1-5)</t>
-  </si>
-  <si>
-    <t>4 (1-7)</t>
-  </si>
-  <si>
-    <t>functions, arrays, C string, stream redirection</t>
-  </si>
-  <si>
     <t>2 x2 functions</t>
   </si>
   <si>
@@ -114,22 +60,73 @@
     <t>2 x4 functions</t>
   </si>
   <si>
-    <t>6 (cheatsheet)</t>
-  </si>
-  <si>
-    <t>5 (lab 6)</t>
-  </si>
-  <si>
-    <t>multidimensional arrays, stack storage, heap storage (malloc(), free())</t>
-  </si>
-  <si>
     <t>typedef struct and how to malloc() and shallow/deep copy it</t>
   </si>
   <si>
     <t>realloc(), preallocation, unstable remove</t>
   </si>
   <si>
-    <t>file i/o: xdr</t>
+    <t>Functions, arrays, C string, stream redirection</t>
+  </si>
+  <si>
+    <t>Multidimensional arrays, stack storage, heap storage (malloc(), free())</t>
+  </si>
+  <si>
+    <t>File i/o: XDR</t>
+  </si>
+  <si>
+    <t>Linked lists</t>
+  </si>
+  <si>
+    <t>01 (lab 01)</t>
+  </si>
+  <si>
+    <t>02 (lab 02)</t>
+  </si>
+  <si>
+    <t>02 (lab 01-03)</t>
+  </si>
+  <si>
+    <t>03 (lab 01-05)</t>
+  </si>
+  <si>
+    <t>04 (lab 01-07)</t>
+  </si>
+  <si>
+    <t>03 (lab 04)</t>
+  </si>
+  <si>
+    <t>04 (lab 05)</t>
+  </si>
+  <si>
+    <t>05 (lab 06)</t>
+  </si>
+  <si>
+    <t>06 (cheatsheet)</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Assignment (due on the Monday)</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,39 +459,39 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" customWidth="1"/>
     <col min="4" max="4" width="63.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -509,18 +506,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A13" si="0">WEEKNUM(B3)-20</f>
+        <f>WEEKNUM(B3)-20</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -532,7 +529,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B4)-20</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -542,31 +539,31 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B5)-20</f>
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>44355</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B6)-20</f>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -576,30 +573,30 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B7)-20</f>
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>44369</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B8)-20</f>
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -609,15 +606,15 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B9)-20</f>
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -627,37 +624,37 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B10)-20</f>
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>44390</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B11)-20</f>
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -667,18 +664,18 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B12)-20</f>
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -688,28 +685,28 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(B13)-20</f>
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>44411</v>
       </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
